--- a/Data/Input/Sales Report_Template.xlsx
+++ b/Data/Input/Sales Report_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\UiPath\Sales_RevenueReport-Performer\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\UiPath\NovaPasta\Sales_RevenueReport-Performer\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0CB093-B082-4282-9E5E-03C200D22F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E396C7B-FFFD-4071-8872-5EBA94CD786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13530" yWindow="1290" windowWidth="7305" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{ID_VENDOR}" sheetId="1" r:id="rId1"/>
@@ -687,6 +687,67 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="image1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3549762C-F529-4629-A927-B92EE261E5E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4743450" y="1371600"/>
+          <a:ext cx="2943225" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -887,26 +948,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B35" sqref="B35:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" hidden="1" customWidth="1"/>
     <col min="10" max="26" width="8.7109375" hidden="1" customWidth="1"/>
@@ -29060,6 +29121,5 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>